--- a/Checklist/Checklist.xlsx
+++ b/Checklist/Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F111FAB-97D9-4516-AF14-EF85DC1128C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84E1387-342D-4725-9816-2EA33D496289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="690" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="5" r:id="rId1"/>
@@ -744,9 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433650E9-8523-4B74-BA58-35715AE69A01}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1492,16 +1490,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="B40:B49"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
     <mergeCell ref="A31:A37"/>
     <mergeCell ref="B31:B39"/>
     <mergeCell ref="A38:A39"/>
@@ -1516,6 +1504,16 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="B22:B30"/>
     <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="B40:B49"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
